--- a/整合結果/自由時報_國際/excel_by_week/2025_W25.xlsx
+++ b/整合結果/自由時報_國際/excel_by_week/2025_W25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>被控處決烏克蘭戰俘違反戰爭法 首名俄軍被烏國起訴受審</t>
+          <t>伊朗被打「小弟怎不動手」？真主黨、伊拉克民兵沉默原因曝</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076214</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076276</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>伊朗被打「小弟怎不動手」？真主黨、伊拉克民兵沉默原因曝</t>
+          <t>被控處決烏克蘭戰俘違反戰爭法 首名俄軍被烏國起訴受審</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076276</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076214</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>食物中毒勒令停業還偷開！日本米其林餐廳3人被捕</t>
+          <t>美兩州議員夫婦遭槍擊2死2傷 警方發現嫌犯車輛和帽子</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076244</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076273</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>鎖定伊朗東北機場 以色列空軍2300公里長途奔襲</t>
+          <t>「無王日」萬人譴責濫捕移民 川普反嗆：全力加強驅逐行動</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076240</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076248</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>疑「外國政府」操控！華盛頓郵報遭駭 記者信箱被入侵</t>
+          <t>Costco熟食區員工首天上班忙到崩潰！ 發文訴苦引關注</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076209</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076305</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>德黑蘭平民反對伊朗政權 同時強調以色列不應攻擊居民</t>
+          <t>抗議過度旅遊影響居住 南歐發起用水槍噴遊客</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076218</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076312</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>伊朗認了！革命衛隊情報首長也遭以軍擊斃</t>
+          <t>美明尼蘇達州議員夫婦2死2傷槍擊案 兇嫌被捕</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076168</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076339</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>川普挺普廷斡旋以伊衝突 馬克宏公開反對：俄國毫無信譽</t>
+          <t>納坦雅胡：伊朗將川普列為「頭號敵人」密謀暗殺</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076193</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076310</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>美妝帝國推手！雅詩蘭黛老董雷納德·蘭黛辭世 享壽92歲</t>
+          <t>自由說新聞》糗！俄軍擊墜自家戰機全程直擊！伊朗「破防這一幕」嚇壞普廷？</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076183</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076371</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>真實版007上司！英國軍情六處任命首位「C」女處長</t>
+          <t>驚！土耳其熱氣球接連出事 同日同地釀1死31傷</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076175</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076301</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>喊話伊朗人起義！納坦雅胡：以色列突襲有望推翻伊朗政權</t>
+          <t>李在明任命3名獨檢調查尹錫悅3大案 今首度列席庭審</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076174</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076318</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>以色列擊斃伊朗革命衛隊情報首腦 中東衝突升高恐引爆區域戰爭</t>
+          <t>損傷多大？以色列突襲鎖定伊朗核設施 各方評估成效說法不一</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076179</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076393</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>美兩州議員夫婦遭槍擊2死2傷 警方發現嫌犯車輛和帽子</t>
+          <t>川普抵達加拿大 G7峰會聚焦以伊衝突與全球安全危機</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076273</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076442</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>美媒驚爆！以色列欲「斬首」伊朗最高領袖 川普急擋下</t>
+          <t>從沒約出來見過面 日本大叔遭美女戀愛投資詐騙近千萬</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076176</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076418</t>
         </is>
       </c>
     </row>
@@ -713,12 +713,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>讓中東再次偉大！川普：有信心讓伊朗與以色列握手言和</t>
+          <t>北京故宮傳漏雨！明代珍貴書畫被淋濕 急清場閉展</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076117</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076392</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>伊朗：革命衛隊情報首長遇害 以色列稱毀鈾濃縮設施</t>
+          <t>英國女子體驗跳傘 降落傘沒開與教練墜落雙亡</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076161</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076379</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>衝突升級 以空襲伊朗 轟全球最大天然氣田</t>
+          <t>空氣中瀰漫死亡氣息：德黑蘭陷入混亂 民眾搶購汽油和食物</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/paper/1711807</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076471</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>美兩州議員夫婦遭槍擊2死2傷 凶手攜槍逃亡</t>
+          <t>中國湖南爆竹工廠驚傳大爆炸 已知9人受傷2人失聯</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/paper/1711811</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076505</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>掃除障礙 以色列先滅3大代理人組織 再攻伊朗</t>
+          <t>英雄！ 印度航空失事機長「避開民宅區」 避免大規模災難</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/paper/1711808</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076484</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>川普普廷通話 聚焦以伊衝突 俄拋重啟烏戰和談</t>
+          <t>食物中毒勒令停業還偷開！日本米其林餐廳3人被捕</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/paper/1711810</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076244</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>對撞川普大閱兵 「無王日」遊行全美百萬人上街反川</t>
+          <t>鎖定伊朗東北機場 以色列空軍2300公里長途奔襲</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/paper/1711809</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076240</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>秘魯規模6.1地震已1死 首都利馬多處山崩</t>
+          <t>疑「外國政府」操控！華盛頓郵報遭駭 記者信箱被入侵</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076160</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076209</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>伊朗新一波飛彈攻勢 以色列：多個地點遭到擊中</t>
+          <t>德黑蘭平民反對伊朗政權 同時強調以色列不應攻擊居民</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076159</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076218</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>美官員：川普否決以色列暗殺伊朗最高領袖計畫</t>
+          <t>川普：以色列伊朗將很快達成協議實現和平</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076154</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076149</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>川普：以色列伊朗將很快達成協議實現和平</t>
+          <t>美官員：川普否決以色列暗殺伊朗最高領袖計畫</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076149</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076154</t>
         </is>
       </c>
     </row>
@@ -917,12 +917,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>以色列與伊朗持續互轟 伊朗已224死1277傷</t>
+          <t>伊朗新一波飛彈攻勢 以色列：多個地點遭到擊中</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076164</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076159</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,301 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>「無王日」萬人譴責濫捕移民 川普反嗆：全力加強驅逐行動</t>
+          <t>秘魯規模6.1地震已1死 首都利馬多處山崩</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076248</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076160</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>對撞川普大閱兵 「無王日」遊行全美百萬人上街反川</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/paper/1711809</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>川普普廷通話 聚焦以伊衝突 俄拋重啟烏戰和談</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/paper/1711810</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>掃除障礙 以色列先滅3大代理人組織 再攻伊朗</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/paper/1711808</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>美兩州議員夫婦遭槍擊2死2傷 凶手攜槍逃亡</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/paper/1711811</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>防空在哪裡？以色列恣意狂轟 伊朗最高領袖面臨國內憤怒</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076518</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>衝突升級 以空襲伊朗 轟全球最大天然氣田</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/paper/1711807</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>讓中東再次偉大！川普：有信心讓伊朗與以色列握手言和</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076117</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>以色列與伊朗持續互轟 伊朗已224死1277傷</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076164</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>美媒驚爆！以色列欲「斬首」伊朗最高領袖 川普急擋下</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076176</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>以色列擊斃伊朗革命衛隊情報首腦 中東衝突升高恐引爆區域戰爭</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076179</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>喊話伊朗人起義！納坦雅胡：以色列突襲有望推翻伊朗政權</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076174</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>真實版007上司！英國軍情六處任命首位「C」女處長</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076175</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>美妝帝國推手！雅詩蘭黛老董雷納德·蘭黛辭世 享壽92歲</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076183</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>川普挺普廷斡旋以伊衝突 馬克宏公開反對：俄國毫無信譽</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076193</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>伊朗認了！革命衛隊情報首長也遭以軍擊斃</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076168</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>伊朗：革命衛隊情報首長遇害 以色列稱毀鈾濃縮設施</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076161</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>驚！日本大阪世博會警察誤扣扳機 幸無傷亡</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076621</t>
         </is>
       </c>
     </row>

--- a/整合結果/自由時報_國際/excel_by_week/2025_W25.xlsx
+++ b/整合結果/自由時報_國際/excel_by_week/2025_W25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>伊朗被打「小弟怎不動手」？真主黨、伊拉克民兵沉默原因曝</t>
+          <t>李在明任命3名獨檢調查尹錫悅3大案 今首度列席庭審</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076276</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076318</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>被控處決烏克蘭戰俘違反戰爭法 首名俄軍被烏國起訴受審</t>
+          <t>損傷多大？以色列突襲鎖定伊朗核設施 各方評估成效說法不一</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076214</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076393</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>美兩州議員夫婦遭槍擊2死2傷 警方發現嫌犯車輛和帽子</t>
+          <t>川普抵達加拿大 G7峰會聚焦以伊衝突與全球安全危機</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076273</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076442</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>「無王日」萬人譴責濫捕移民 川普反嗆：全力加強驅逐行動</t>
+          <t>從沒約出來見過面 日本大叔遭美女戀愛投資詐騙近千萬</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076248</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076418</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Costco熟食區員工首天上班忙到崩潰！ 發文訴苦引關注</t>
+          <t>北京故宮傳漏雨！明代珍貴書畫被淋濕 急清場閉展</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076305</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076392</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>抗議過度旅遊影響居住 南歐發起用水槍噴遊客</t>
+          <t>英國女子體驗跳傘 降落傘沒開與教練墜落雙亡</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076312</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076379</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>美明尼蘇達州議員夫婦2死2傷槍擊案 兇嫌被捕</t>
+          <t>空氣中瀰漫死亡氣息：德黑蘭陷入混亂 民眾搶購汽油和食物</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076339</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076471</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>納坦雅胡：伊朗將川普列為「頭號敵人」密謀暗殺</t>
+          <t>中國湖南爆竹工廠驚傳大爆炸 已知9人受傷2人失聯</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076310</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076505</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>自由說新聞》糗！俄軍擊墜自家戰機全程直擊！伊朗「破防這一幕」嚇壞普廷？</t>
+          <t>英雄！ 印度航空失事機長「避開民宅區」 避免大規模災難</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076371</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076484</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>驚！土耳其熱氣球接連出事 同日同地釀1死31傷</t>
+          <t>防空在哪裡？以色列恣意狂轟 伊朗最高領袖面臨國內憤怒</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076301</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076518</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>李在明任命3名獨檢調查尹錫悅3大案 今首度列席庭審</t>
+          <t>波音又出事！ 中國客機起飛半小時緊急返航 網炸鍋登微博熱搜</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076318</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076588</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>損傷多大？以色列突襲鎖定伊朗核設施 各方評估成效說法不一</t>
+          <t>驚險畫面曝！秘魯規模6.1強震釀1死5傷 多地山崩、民眾驚慌逃生</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076393</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076587</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>川普抵達加拿大 G7峰會聚焦以伊衝突與全球安全危機</t>
+          <t>盼印航墜機第2個奇蹟！ 食堂廚師期望尋獲失蹤母親和女兒</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076442</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076600</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>從沒約出來見過面 日本大叔遭美女戀愛投資詐騙近千萬</t>
+          <t>可用來製造F-35！南韓首次向美國出口銻 擺脫依賴中國風險</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076418</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076681</t>
         </is>
       </c>
     </row>
@@ -713,12 +713,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>北京故宮傳漏雨！明代珍貴書畫被淋濕 急清場閉展</t>
+          <t>驚！土耳其熱氣球接連出事 同日同地釀1死31傷</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076392</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076301</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>英國女子體驗跳傘 降落傘沒開與教練墜落雙亡</t>
+          <t>他們將自食惡果！ 以色列控哈米尼下令襲擊平民</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076379</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076678</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>空氣中瀰漫死亡氣息：德黑蘭陷入混亂 民眾搶購汽油和食物</t>
+          <t>怕鄰居就是伊朗高層一同挨炸 德黑蘭居民瘋狂逃離首都</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076471</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076674</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>中國湖南爆竹工廠驚傳大爆炸 已知9人受傷2人失聯</t>
+          <t>哈米尼行蹤疑曝光！ 中東外交人士：他在伊朗任何地方都不安全</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076505</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076734</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>英雄！ 印度航空失事機長「避開民宅區」 避免大規模災難</t>
+          <t>共和黨領導人誓言 若有必要7/4前完成「大而美」法案</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076484</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076809</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>食物中毒勒令停業還偷開！日本米其林餐廳3人被捕</t>
+          <t>美加州驚傳車輛衝撞行人 至少10人受傷</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076244</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076798</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>鎖定伊朗東北機場 以色列空軍2300公里長途奔襲</t>
+          <t>童年夢想成真！苦等數年 英國足球巨星貝克漢「終獲封爵」</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076240</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076705</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>疑「外國政府」操控！華盛頓郵報遭駭 記者信箱被入侵</t>
+          <t>以伊戰爭打亂算盤！加拿大在G7面對這五大挑戰</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076209</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076732</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>德黑蘭平民反對伊朗政權 同時強調以色列不應攻擊居民</t>
+          <t>以色列再出重手！空襲伊朗能源心臟 戰略目標疑轉向政權瓦解</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076218</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076839</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>川普：以色列伊朗將很快達成協議實現和平</t>
+          <t>震撼爆料！納坦雅胡稱伊朗兩度欲暗殺川普</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076149</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076955</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>印度官員：印航失事客機第2具黑盒子尋獲</t>
+          <t>習近平72歲生日 普廷致電祝賀</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076150</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076752</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>美官員：川普否決以色列暗殺伊朗最高領袖計畫</t>
+          <t>中共調查實習醫墜樓案「查無不法」！超扯報告書氣炸中國網民</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076154</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076968</t>
         </is>
       </c>
     </row>
@@ -917,12 +917,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>伊朗新一波飛彈攻勢 以色列：多個地點遭到擊中</t>
+          <t>薄瓜瓜發文追憶薄熙來 遙祝父親節快樂</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076159</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076905</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>秘魯規模6.1地震已1死 首都利馬多處山崩</t>
+          <t>「神戶小姐」熊貓旦旦人生謝幕 製成標本後送還中國</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076160</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076951</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>對撞川普大閱兵 「無王日」遊行全美百萬人上街反川</t>
+          <t>中國公務員考試「孔子姓什麼？」 一堆人竟答錯 馮睎乾這樣吐槽......</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/paper/1711809</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076863</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>川普普廷通話 聚焦以伊衝突 俄拋重啟烏戰和談</t>
+          <t>反川普「無王日」爆槍響！無辜男遭流彈擊中身亡</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/paper/1711810</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076902</t>
         </is>
       </c>
     </row>
@@ -985,12 +985,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>掃除障礙 以色列先滅3大代理人組織 再攻伊朗</t>
+          <t>以伊2國互轟當煙火看？ 鄰居黎巴嫩「飛彈下開趴」魔幻畫面曝</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/paper/1711808</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076612</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>美兩州議員夫婦遭槍擊2死2傷 凶手攜槍逃亡</t>
+          <t>自由說新聞》糗！俄軍擊墜自家戰機全程直擊！伊朗「破防這一幕」嚇壞普廷？</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/paper/1711811</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076371</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>防空在哪裡？以色列恣意狂轟 伊朗最高領袖面臨國內憤怒</t>
+          <t>驚！日本大阪世博會警察誤扣扳機 幸無傷亡</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076518</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076621</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>衝突升級 以空襲伊朗 轟全球最大天然氣田</t>
+          <t>美明尼蘇達州議員夫婦2死2傷槍擊案 兇嫌被捕</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/paper/1711807</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076339</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>讓中東再次偉大！川普：有信心讓伊朗與以色列握手言和</t>
+          <t>川普：以色列伊朗將很快達成協議實現和平</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076117</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076149</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1070,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>以色列與伊朗持續互轟 伊朗已224死1277傷</t>
+          <t>印度官員：印航失事客機第2具黑盒子尋獲</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076164</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076150</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>美媒驚爆！以色列欲「斬首」伊朗最高領袖 川普急擋下</t>
+          <t>美官員：川普否決以色列暗殺伊朗最高領袖計畫</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076176</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076154</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>以色列擊斃伊朗革命衛隊情報首腦 中東衝突升高恐引爆區域戰爭</t>
+          <t>納坦雅胡：伊朗將川普列為「頭號敵人」密謀暗殺</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076179</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076310</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>喊話伊朗人起義！納坦雅胡：以色列突襲有望推翻伊朗政權</t>
+          <t>秘魯規模6.1地震已1死 首都利馬多處山崩</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076174</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076160</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1138,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>真實版007上司！英國軍情六處任命首位「C」女處長</t>
+          <t>對撞川普大閱兵 「無王日」遊行全美百萬人上街反川</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076175</t>
+          <t>https://news.ltn.com.tw/news/world/paper/1711809</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>美妝帝國推手！雅詩蘭黛老董雷納德·蘭黛辭世 享壽92歲</t>
+          <t>川普普廷通話 聚焦以伊衝突 俄拋重啟烏戰和談</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076183</t>
+          <t>https://news.ltn.com.tw/news/world/paper/1711810</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>川普挺普廷斡旋以伊衝突 馬克宏公開反對：俄國毫無信譽</t>
+          <t>掃除障礙 以色列先滅3大代理人組織 再攻伊朗</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076193</t>
+          <t>https://news.ltn.com.tw/news/world/paper/1711808</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>伊朗認了！革命衛隊情報首長也遭以軍擊斃</t>
+          <t>美兩州議員夫婦遭槍擊2死2傷 凶手攜槍逃亡</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076168</t>
+          <t>https://news.ltn.com.tw/news/world/paper/1711811</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>伊朗：革命衛隊情報首長遇害 以色列稱毀鈾濃縮設施</t>
+          <t>衝突升級 以空襲伊朗 轟全球最大天然氣田</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076161</t>
+          <t>https://news.ltn.com.tw/news/world/paper/1711807</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,794 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>驚！日本大阪世博會警察誤扣扳機 幸無傷亡</t>
+          <t>伊朗：革命衛隊情報首長遇害 以色列稱毀鈾濃縮設施</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://news.ltn.com.tw/news/world/breakingnews/5076621</t>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076161</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>讓中東再次偉大！川普：有信心讓伊朗與以色列握手言和</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076117</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>以色列與伊朗持續互轟 伊朗已224死1277傷</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076164</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>美媒驚爆！以色列欲「斬首」伊朗最高領袖 川普急擋下</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076176</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>以色列擊斃伊朗革命衛隊情報首腦 中東衝突升高恐引爆區域戰爭</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076179</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>伊朗新一波飛彈攻勢 以色列：多個地點遭到擊中</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076159</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>真實版007上司！英國軍情六處任命首位「C」女處長</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076175</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>喊話伊朗人起義！納坦雅胡：以色列突襲有望推翻伊朗政權</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076174</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>抗議過度旅遊影響居住 南歐發起用水槍噴遊客</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076312</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>「無王日」萬人譴責濫捕移民 川普反嗆：全力加強驅逐行動</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076248</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>美兩州議員夫婦遭槍擊2死2傷 警方發現嫌犯車輛和帽子</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076273</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>被控處決烏克蘭戰俘違反戰爭法 首名俄軍被烏國起訴受審</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076214</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>伊朗被打「小弟怎不動手」？真主黨、伊拉克民兵沉默原因曝</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076276</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>食物中毒勒令停業還偷開！日本米其林餐廳3人被捕</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076244</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Costco熟食區員工首天上班忙到崩潰！ 發文訴苦引關注</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076305</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>疑「外國政府」操控！華盛頓郵報遭駭 記者信箱被入侵</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076209</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>德黑蘭平民反對伊朗政權 同時強調以色列不應攻擊居民</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076218</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>伊朗認了！革命衛隊情報首長也遭以軍擊斃</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076168</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>川普挺普廷斡旋以伊衝突 馬克宏公開反對：俄國毫無信譽</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076193</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>鎖定伊朗東北機場 以色列空軍2300公里長途奔襲</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076240</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>美妝帝國推手！雅詩蘭黛老董雷納德·蘭黛辭世 享壽92歲</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5076183</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>拍電影？賓士卡在羅馬「西班牙階梯」 80歲男駕駛凌晨硬闖GG了......</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5078756</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>英男臨時改簽逃過死亡航班 換乘竟也是「11A」：巧到讓人頭皮發麻</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5078797</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>美國史上最大珠寶竊案近30億元 7嫌身分確認、3人落網</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5078790</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>日本Honda宣布 可重複使用小型火箭試射成功</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5078895</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>悚！泰勒絲豪宅附近海灘沖上人類遺骸 死者身分曝光</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5078989</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>防資料被送到以色列！伊朗要求公民停止使用 WhatsApp回應了</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5078877</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>以色列滯外公民分階段返國 首架航班抵達本古里安機場</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5078913</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>以色列武力賭博 可能促使伊朗加速核子計劃</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5079017</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>印航墜毀 引擎殘骸、飛行記錄器、襟翼和縫翼都是調查重點</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5078807</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>中國上千年輕拜金女被拐歐洲賣淫 比利時警：還有保險套快遞員</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5078929</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>商場遭挾持白目警竟直接打電話來 中國女子中20刀因「假體」保命</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5078899</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>伊朗傷亡曝光！以伊互轟第6天 全國已知585死1326傷</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5078766</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>嚇壞！日本東京飯店沙拉「太新鮮」 驚見活跳跳樹蛙</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5078668</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>美國男山上滑雪摔倒 翻滾墜落重摔碎石區急送醫</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5078655</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>以伊衝突持續中 川普「白宮戰情會議」後與納坦雅胡通話</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5078706</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>生命奇蹟！美國孕婦腦死4個月 剖腹產下寶寶</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5078720</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>下詛咒？日本店家盆栽頻頻枯死 監視器揭驚悚真相</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5078678</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>自由說新聞》直擊！烏戰機炸爛俄軍基地！伊朗陷危恐讓普廷斷臂？</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5078751</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>買彩券放袋子忘記 美國工程師清理車子開心領回145萬</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5078621</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>美陸戰隊：北京第一擊鎖定基建 交戰區不限第一島鏈</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5078535</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>伊朗與以色列衝突 俄學者：俄羅斯恐在中東再次遭遇挫敗</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5078663</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>扯！日本大阪世博會 中國男潛入會場過夜被捕</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5078615</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>籲軍事行動應降溫 馬克宏反對伊朗政權更迭</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5078594</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>紐西蘭機密文件：中國試圖淡化試射洲際彈道飛彈</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5079096</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>鴨嘴獸靠「外掛荷爾蒙」分公母 哺乳動物界唯一例子</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5078760</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>美國紐約市長擬參選人力挺移民被ICE逮捕 衝突畫面曝光</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://news.ltn.com.tw/news/world/breakingnews/5079099</t>
         </is>
       </c>
     </row>
